--- a/Example_1.xlsx
+++ b/Example_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommasocancellario/Desktop/GitHub/biomapper_1.0_html_intel/biomapper_1.0_html_intel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8DB8E8-869E-AC4F-9242-5F9034922BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63D313-1E92-DA4E-A83F-8D9A507F9CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="820" windowWidth="25600" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>N</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>Città_del_Vaticano</t>
+  </si>
+  <si>
+    <t>Corsica</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>Canton Ticino</t>
+  </si>
+  <si>
+    <t>R24</t>
   </si>
 </sst>
 </file>
@@ -654,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,6 +1048,28 @@
         <v>48</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
         <v>0</v>
       </c>
     </row>
